--- a/createtable/dividend.xlsx
+++ b/createtable/dividend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\python\stockdatamanage\createtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C22DC7-2D80-404F-8218-3F16CC4EA137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF12BAE-FDDF-4F3B-AEF8-199CB6FAE163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2B5F3F52-2FA2-4549-AD1E-FE6631D4D733}"/>
+    <workbookView xWindow="3100" yWindow="2430" windowWidth="19200" windowHeight="10510" xr2:uid="{2B5F3F52-2FA2-4549-AD1E-FE6631D4D733}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>名称</t>
   </si>
@@ -48,9 +48,6 @@
     <t>ts_code</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -151,6 +148,22 @@
   </si>
   <si>
     <t>基准股本（万）</t>
+  </si>
+  <si>
+    <t>char(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -517,12 +530,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,232 +549,233 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>